--- a/Person/刘万里/用户故事--刘万里.xlsx
+++ b/Person/刘万里/用户故事--刘万里.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\刘万里\Documents\Tencent Files\531768170\FileRecv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ADG-\Person\刘万里\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C80294CB-3222-4142-A688-1871A2B4B3B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E1497E-BCE4-44D8-B149-A630B6F85D59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4A24C4FF-A95E-4926-86A4-A10C0C92F855}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="42">
   <si>
     <t>版本</t>
   </si>
@@ -168,26 +168,6 @@
   </si>
   <si>
     <t>作为一个潮人，我希望能够退换不合适和不喜欢的服饰</t>
-  </si>
-  <si>
-    <t>两个月</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>十五天</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>七天</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>三天</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>一个月</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -218,6 +198,7 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -926,8 +907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A826C442-7821-4A2B-B47F-D4B2B3B21A18}">
   <dimension ref="A1:U25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1017,8 +998,8 @@
       <c r="H2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>42</v>
+      <c r="I2" s="2">
+        <v>24</v>
       </c>
       <c r="J2" s="2">
         <v>99</v>
@@ -1056,8 +1037,8 @@
       <c r="H3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>43</v>
+      <c r="I3" s="2">
+        <v>24</v>
       </c>
       <c r="J3" s="2">
         <v>92</v>
@@ -1095,8 +1076,8 @@
       <c r="H4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>44</v>
+      <c r="I4" s="2">
+        <v>36</v>
       </c>
       <c r="J4" s="2">
         <v>88</v>
@@ -1117,7 +1098,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>16</v>
@@ -1134,8 +1115,8 @@
       <c r="H5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>44</v>
+      <c r="I5" s="2">
+        <v>36</v>
       </c>
       <c r="J5" s="2">
         <v>85</v>
@@ -1156,7 +1137,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>16</v>
@@ -1173,8 +1154,8 @@
       <c r="H6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>45</v>
+      <c r="I6" s="2">
+        <v>8</v>
       </c>
       <c r="J6" s="2">
         <v>82</v>
@@ -1195,7 +1176,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>16</v>
@@ -1212,8 +1193,8 @@
       <c r="H7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>45</v>
+      <c r="I7" s="2">
+        <v>8</v>
       </c>
       <c r="J7" s="2">
         <v>78</v>
@@ -1234,7 +1215,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>16</v>
@@ -1251,8 +1232,8 @@
       <c r="H8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="2" t="s">
-        <v>45</v>
+      <c r="I8" s="2">
+        <v>8</v>
       </c>
       <c r="J8" s="2">
         <v>66</v>
@@ -1273,7 +1254,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>16</v>
@@ -1290,8 +1271,8 @@
       <c r="H9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="2" t="s">
-        <v>44</v>
+      <c r="I9" s="2">
+        <v>16</v>
       </c>
       <c r="J9" s="2">
         <v>84</v>
@@ -1312,7 +1293,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>16</v>
@@ -1329,8 +1310,8 @@
       <c r="H10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I10" s="2" t="s">
-        <v>44</v>
+      <c r="I10" s="2">
+        <v>25</v>
       </c>
       <c r="J10" s="2">
         <v>97</v>
@@ -1344,7 +1325,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>16</v>
@@ -1361,8 +1342,8 @@
       <c r="H11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I11" s="2" t="s">
-        <v>46</v>
+      <c r="I11" s="2">
+        <v>16</v>
       </c>
       <c r="J11" s="2">
         <v>89</v>

--- a/Person/刘万里/用户故事--刘万里.xlsx
+++ b/Person/刘万里/用户故事--刘万里.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ADG-\Person\刘万里\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E1497E-BCE4-44D8-B149-A630B6F85D59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2669AA02-8F8F-4FCC-B331-50238B2E9D73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4A24C4FF-A95E-4926-86A4-A10C0C92F855}"/>
   </bookViews>
@@ -908,7 +908,7 @@
   <dimension ref="A1:U25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -999,7 +999,7 @@
         <v>18</v>
       </c>
       <c r="I2" s="2">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="J2" s="2">
         <v>99</v>
@@ -1038,7 +1038,7 @@
         <v>18</v>
       </c>
       <c r="I3" s="2">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="J3" s="2">
         <v>92</v>
@@ -1077,7 +1077,7 @@
         <v>18</v>
       </c>
       <c r="I4" s="2">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="J4" s="2">
         <v>88</v>
@@ -1116,7 +1116,7 @@
         <v>18</v>
       </c>
       <c r="I5" s="2">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="J5" s="2">
         <v>85</v>
@@ -1155,7 +1155,7 @@
         <v>18</v>
       </c>
       <c r="I6" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J6" s="2">
         <v>82</v>
@@ -1194,7 +1194,7 @@
         <v>18</v>
       </c>
       <c r="I7" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J7" s="2">
         <v>78</v>
@@ -1233,7 +1233,7 @@
         <v>18</v>
       </c>
       <c r="I8" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J8" s="2">
         <v>66</v>
@@ -1272,7 +1272,7 @@
         <v>18</v>
       </c>
       <c r="I9" s="2">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="J9" s="2">
         <v>84</v>
@@ -1311,7 +1311,7 @@
         <v>18</v>
       </c>
       <c r="I10" s="2">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="J10" s="2">
         <v>97</v>
@@ -1343,7 +1343,7 @@
         <v>18</v>
       </c>
       <c r="I11" s="2">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="J11" s="2">
         <v>89</v>
